--- a/Pursuit of DoGL charts.xlsx
+++ b/Pursuit of DoGL charts.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjunsohani/Documents/LWS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddbs\Documents\GitHub\livingwithoutstuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="17040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -86,12 +86,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -135,7 +138,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -211,10 +213,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0575744326076887"/>
-          <c:y val="0.167339805825243"/>
-          <c:w val="0.876543214451135"/>
-          <c:h val="0.701793135081416"/>
+          <c:x val="5.75744326076887E-2"/>
+          <c:y val="0.16733980582524299"/>
+          <c:w val="0.87654321445113503"/>
+          <c:h val="0.70179313508141605"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -253,34 +255,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -292,38 +294,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4045-492E-B65A-BB01F072F012}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -366,19 +373,21 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2400"/>
                   <a:t>Person</a:t>
                 </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44250215476312205"/>
+              <c:y val="0.92599126484541139"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -420,11 +429,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -467,6 +476,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1085,19 +1095,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:colOff>441325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>126998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>75563</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1380,13 +1396,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1394,7 +1410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1422,7 +1438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1436,7 +1452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -1450,7 +1466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1464,7 +1480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1478,7 +1494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6</v>
       </c>
@@ -1492,7 +1508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>7</v>
       </c>
@@ -1506,7 +1522,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>8</v>
       </c>
@@ -1520,7 +1536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>9</v>
       </c>
@@ -1534,7 +1550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>10</v>
       </c>
